--- a/Docs/Burndown Charts.xlsx
+++ b/Docs/Burndown Charts.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint1" sheetId="5" r:id="rId1"/>
     <sheet name="Sprint2" sheetId="6" r:id="rId2"/>
+    <sheet name="Sprint3" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>Task</t>
   </si>
@@ -182,6 +183,12 @@
   </si>
   <si>
     <t>Implement AI Difficulty: Hard</t>
+  </si>
+  <si>
+    <t>0-5 days</t>
+  </si>
+  <si>
+    <t>kjfa;jslkjfd</t>
   </si>
 </sst>
 </file>
@@ -417,7 +424,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -472,11 +479,371 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="48">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Helvetica"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="14"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="13"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="13"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Helvetica"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="14"/>
+        </right>
+        <top style="thin">
+          <color indexed="13"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="13"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF3F3F3F"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FFA5A5A5"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFA5A5A5"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFA5A5A5"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFA5A5A5"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Helvetica"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="13"/>
+        </left>
+        <right style="thin">
+          <color indexed="13"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Helvetica"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Helvetica"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Helvetica"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF8F8F8F"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF8F8F8F"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF8F8F8F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF8F8F8F"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF8F8F8F"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Helvetica"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1227,14 +1594,14 @@
   </dxfs>
   <tableStyles count="2">
     <tableStyle name="Table Style 1" pivot="0" count="5">
-      <tableStyleElement type="headerRow" dxfId="33"/>
-      <tableStyleElement type="firstColumn" dxfId="32"/>
-      <tableStyleElement type="firstRowStripe" dxfId="31"/>
-      <tableStyleElement type="secondRowStripe" dxfId="30"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="29"/>
+      <tableStyleElement type="headerRow" dxfId="47"/>
+      <tableStyleElement type="firstColumn" dxfId="46"/>
+      <tableStyleElement type="firstRowStripe" dxfId="45"/>
+      <tableStyleElement type="secondRowStripe" dxfId="44"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="43"/>
     </tableStyle>
     <tableStyle name="Table Style 2" pivot="0" count="1">
-      <tableStyleElement type="firstColumn" dxfId="28"/>
+      <tableStyleElement type="firstColumn" dxfId="42"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1627,11 +1994,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="250728688"/>
-        <c:axId val="250730648"/>
+        <c:axId val="192345328"/>
+        <c:axId val="192345888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="250728688"/>
+        <c:axId val="192345328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1721,7 +2088,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250730648"/>
+        <c:crossAx val="192345888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1729,7 +2096,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="250730648"/>
+        <c:axId val="192345888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -1794,7 +2161,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250728688"/>
+        <c:crossAx val="192345328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -2228,11 +2595,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="251447064"/>
-        <c:axId val="251447848"/>
+        <c:axId val="192341408"/>
+        <c:axId val="191660048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="251447064"/>
+        <c:axId val="192341408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2322,7 +2689,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251447848"/>
+        <c:crossAx val="191660048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2330,7 +2697,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="251447848"/>
+        <c:axId val="191660048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -2395,7 +2762,576 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251447064"/>
+        <c:crossAx val="192341408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter>
+      <c:oddHeader>&amp;CSprint 1</c:oddHeader>
+    </c:headerFooter>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sprint3!$D$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal Backlog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sprint3!$C$28:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint3!$D$28:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sprint3!$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual Backlog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sprint3!$C$28:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint3!$E$28:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="356970784"/>
+        <c:axId val="356971344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="356970784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                      <a:alpha val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                      <a:alpha val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="70BF41"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="356971344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="356971344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="70BF41"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="356970784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -2562,6 +3498,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
   <cs:axisTitle>
@@ -3112,6 +4088,555 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3732,23 +5257,87 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>174984</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>582705</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>87488</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C27:E37" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C27:E37" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38" totalsRowBorderDxfId="37">
   <autoFilter ref="C27:E37"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Time Spent" dataDxfId="22"/>
-    <tableColumn id="2" name="Ideal Backlog" dataDxfId="21">
+    <tableColumn id="1" name="Time Spent" dataDxfId="36"/>
+    <tableColumn id="2" name="Ideal Backlog" dataDxfId="35">
       <calculatedColumnFormula>24-(24/10*C28)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Actual Backlog" dataDxfId="20"/>
+    <tableColumn id="3" name="Actual Backlog" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B25" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B25" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30">
   <autoFilter ref="A1:B25"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Task" dataDxfId="29"/>
+    <tableColumn id="2" name="Time Finished" dataDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="C27:E40" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+  <autoFilter ref="C27:E40"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Time Spent" dataDxfId="22"/>
+    <tableColumn id="2" name="Ideal Backlog" dataDxfId="21">
+      <calculatedColumnFormula>24-(24/10*C28)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Actual Backlog" dataDxfId="20">
+      <calculatedColumnFormula>25-COUNTIF(Table2[Time Finished],Table14[[#This Row],[Time Spent]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table25" displayName="Table25" ref="A1:B26" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
+  <autoFilter ref="A1:B26"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Task" dataDxfId="15"/>
     <tableColumn id="2" name="Time Finished" dataDxfId="14"/>
@@ -3757,8 +5346,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="C27:E40" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table146" displayName="Table146" ref="C27:E40" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
   <autoFilter ref="C27:E40"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Time Spent" dataDxfId="8"/>
@@ -3766,16 +5355,16 @@
       <calculatedColumnFormula>24-(24/10*C28)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="Actual Backlog" dataDxfId="6">
-      <calculatedColumnFormula>25-COUNTIF(Table2[Time Finished],Table14[[#This Row],[Time Spent]])</calculatedColumnFormula>
+      <calculatedColumnFormula>25-COUNTIF(Table2[Time Finished],Table146[[#This Row],[Time Spent]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table25" displayName="Table25" ref="A1:B26" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2">
-  <autoFilter ref="A1:B26"/>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table257" displayName="Table257" ref="A1:B3" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" headerRowBorderDxfId="2" tableBorderDxfId="3">
+  <autoFilter ref="A1:B3"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Task" dataDxfId="1"/>
     <tableColumn id="2" name="Time Finished" dataDxfId="0"/>
@@ -5259,7 +6848,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;26Sprint 1</oddHeader>
   </headerFooter>
@@ -5278,8 +6867,8 @@
   </sheetPr>
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A17" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5690,7 +7279,314 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="84" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="86" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;26Sprint 2</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E40"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20"/>
+      <c r="B8" s="19"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="20"/>
+      <c r="B18" s="19"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
+    </row>
+    <row r="27" spans="1:5" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="14">
+        <v>0</v>
+      </c>
+      <c r="D28" s="15">
+        <f>COUNT(Table257[Time Finished])</f>
+        <v>1</v>
+      </c>
+      <c r="E28" s="16">
+        <f>25-COUNTIF(Table257[Time Finished],Table146[[#This Row],[Time Spent]])</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C29" s="14">
+        <f>C28+1</f>
+        <v>1</v>
+      </c>
+      <c r="D29" s="15">
+        <f>ROUNDUP(25-(25/12*C29),0)</f>
+        <v>23</v>
+      </c>
+      <c r="E29" s="16">
+        <f>E28-COUNTIF(Table257[Time Finished],Table146[[#This Row],[Time Spent]])</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C30" s="14">
+        <f t="shared" ref="C30:C37" si="0">C29+1</f>
+        <v>2</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16">
+        <f>E29-COUNTIF(Table257[Time Finished],Table146[[#This Row],[Time Spent]])</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C31" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="16">
+        <f>E30-COUNTIF(Table257[Time Finished],Table146[[#This Row],[Time Spent]])</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C32" s="14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="16">
+        <f>E31-COUNTIF(Table257[Time Finished],Table146[[#This Row],[Time Spent]])</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C33" s="14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="16">
+        <f>E32-COUNTIF(Table257[Time Finished],Table146[[#This Row],[Time Spent]])</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C34" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="16">
+        <f>E33-COUNTIF(Table257[Time Finished],Table146[[#This Row],[Time Spent]])</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C35" s="14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="E35" s="16">
+        <f>E34-COUNTIF(Table257[Time Finished],Table146[[#This Row],[Time Spent]])</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C36" s="14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D36" s="15"/>
+      <c r="E36" s="16">
+        <f>E35-COUNTIF(Table257[Time Finished],Table146[[#This Row],[Time Spent]])</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C37" s="14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D37" s="15"/>
+      <c r="E37" s="16">
+        <f>E36-COUNTIF(Table257[Time Finished],Table146[[#This Row],[Time Spent]])</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C38" s="14">
+        <v>10</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="16">
+        <f>E37-COUNTIF(Table257[Time Finished],Table146[[#This Row],[Time Spent]])</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C39" s="14">
+        <v>11</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="16">
+        <f>E38-COUNTIF(Table257[Time Finished],Table146[[#This Row],[Time Spent]])</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C40" s="14">
+        <v>12</v>
+      </c>
+      <c r="D40" s="15"/>
+      <c r="E40" s="16">
+        <f>E39-COUNTIF(Table257[Time Finished],Table146[[#This Row],[Time Spent]])</f>
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="86" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;26Sprint 2</oddHeader>
   </headerFooter>

--- a/Docs/Burndown Charts.xlsx
+++ b/Docs/Burndown Charts.xlsx
@@ -5,11 +5,11 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\315\p2\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\315\project2\CSCE315-Project2\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint1" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
   <si>
     <t>Task</t>
   </si>
@@ -188,7 +188,64 @@
     <t>0-5 days</t>
   </si>
   <si>
-    <t>kjfa;jslkjfd</t>
+    <t>Update Board-Game Layout</t>
+  </si>
+  <si>
+    <t>GUI Client: Connecting to server</t>
+  </si>
+  <si>
+    <t>GUI Client: Sending move to server</t>
+  </si>
+  <si>
+    <t>GUI Client: Interpret server responses</t>
+  </si>
+  <si>
+    <t>GUI Client: Display board</t>
+  </si>
+  <si>
+    <t>GUI Client: Testing user access</t>
+  </si>
+  <si>
+    <t>GUI Client: Added images</t>
+  </si>
+  <si>
+    <t>GUI Client: Added buttons</t>
+  </si>
+  <si>
+    <t>GUI Client: Update Color Scheme</t>
+  </si>
+  <si>
+    <t>GUI Client: Improve efficiency</t>
+  </si>
+  <si>
+    <t>GUI Client: Added functionality to buttons</t>
+  </si>
+  <si>
+    <t>GUI Client: Updated connection issues</t>
+  </si>
+  <si>
+    <t>GUI Client: Password screen</t>
+  </si>
+  <si>
+    <t>GUI Client: Centering client</t>
+  </si>
+  <si>
+    <t>GUI Client: Connection functionality</t>
+  </si>
+  <si>
+    <t>GUI Client: Allow insensitive password</t>
+  </si>
+  <si>
+    <t>Perfect Command Transcribing</t>
+  </si>
+  <si>
+    <t>Creation of GUI Class</t>
+  </si>
+  <si>
+    <t>GUI Client: Fix functionality of buttons</t>
+  </si>
+  <si>
+    <t>GUI Client: Fixed row and columns</t>
   </si>
 </sst>
 </file>
@@ -238,7 +295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -418,13 +475,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -485,7 +551,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -568,13 +637,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF3F3F3F"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color rgb="FFA5A5A5"/>
         </left>
@@ -598,6 +660,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF3F3F3F"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -773,13 +842,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF8F8F8F"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FF8F8F8F"/>
@@ -802,6 +864,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF8F8F8F"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1727,6 +1796,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1994,11 +2064,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="192345328"/>
-        <c:axId val="192345888"/>
+        <c:axId val="179950400"/>
+        <c:axId val="179950960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="192345328"/>
+        <c:axId val="179950400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2088,7 +2158,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192345888"/>
+        <c:crossAx val="179950960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2096,7 +2166,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192345888"/>
+        <c:axId val="179950960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -2161,7 +2231,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192345328"/>
+        <c:crossAx val="179950400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -2177,6 +2247,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2595,11 +2666,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="192341408"/>
-        <c:axId val="191660048"/>
+        <c:axId val="177992976"/>
+        <c:axId val="177993536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="192341408"/>
+        <c:axId val="177992976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2689,7 +2760,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191660048"/>
+        <c:crossAx val="177993536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2697,7 +2768,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191660048"/>
+        <c:axId val="177993536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -2762,7 +2833,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192341408"/>
+        <c:crossAx val="177992976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -2887,7 +2958,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 2</a:t>
+              <a:t> 3</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2962,10 +3033,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sprint3!$C$28:$C$40</c:f>
+              <c:f>Sprint3!$C$28:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2983,42 +3054,33 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sprint3!$D$28:$D$40</c:f>
+              <c:f>Sprint3!$D$28:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3059,10 +3121,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sprint3!$C$28:$C$40</c:f>
+              <c:f>Sprint3!$C$28:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3080,75 +3142,33 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sprint3!$E$28:$E$40</c:f>
+              <c:f>Sprint3!$E$28:$E$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3164,11 +3184,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="356970784"/>
-        <c:axId val="356971344"/>
+        <c:axId val="181188208"/>
+        <c:axId val="181188768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="356970784"/>
+        <c:axId val="181188208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3258,7 +3278,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356971344"/>
+        <c:crossAx val="181188768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3266,7 +3286,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="356971344"/>
+        <c:axId val="181188768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -3331,7 +3351,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356970784"/>
+        <c:crossAx val="181188208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -3410,7 +3430,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter>
-      <c:oddHeader>&amp;CSprint 1</c:oddHeader>
+      <c:oddHeader>&amp;C&amp;26Sprint 3</c:oddHeader>
     </c:headerFooter>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup orientation="landscape"/>
@@ -5347,8 +5367,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table146" displayName="Table146" ref="C27:E40" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
-  <autoFilter ref="C27:E40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table146" displayName="Table146" ref="C27:E33" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="C27:E33"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Time Spent" dataDxfId="8"/>
     <tableColumn id="2" name="Ideal Backlog" dataDxfId="7">
@@ -5363,8 +5383,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table257" displayName="Table257" ref="A1:B3" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" headerRowBorderDxfId="2" tableBorderDxfId="3">
-  <autoFilter ref="A1:B3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table257" displayName="Table257" ref="A1:B21" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2">
+  <autoFilter ref="A1:B21"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Task" dataDxfId="1"/>
     <tableColumn id="2" name="Time Finished" dataDxfId="0"/>
@@ -6482,7 +6502,7 @@
   </sheetPr>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A2" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -6867,7 +6887,7 @@
   </sheetPr>
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -7298,8 +7318,8 @@
   </sheetPr>
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7321,93 +7341,167 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B2" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="10"/>
+        <v>71</v>
+      </c>
+      <c r="B3" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
@@ -7445,11 +7539,10 @@
       </c>
       <c r="D28" s="15">
         <f>COUNT(Table257[Time Finished])</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E28" s="16">
-        <f>25-COUNTIF(Table257[Time Finished],Table146[[#This Row],[Time Spent]])</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -7458,12 +7551,10 @@
         <v>1</v>
       </c>
       <c r="D29" s="15">
-        <f>ROUNDUP(25-(25/12*C29),0)</f>
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E29" s="16">
-        <f>E28-COUNTIF(Table257[Time Finished],Table146[[#This Row],[Time Spent]])</f>
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -7471,10 +7562,11 @@
         <f t="shared" ref="C30:C37" si="0">C29+1</f>
         <v>2</v>
       </c>
-      <c r="D30" s="15"/>
+      <c r="D30" s="15">
+        <v>12</v>
+      </c>
       <c r="E30" s="16">
-        <f>E29-COUNTIF(Table257[Time Finished],Table146[[#This Row],[Time Spent]])</f>
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -7482,10 +7574,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D31" s="15"/>
+      <c r="D31" s="15">
+        <v>8</v>
+      </c>
       <c r="E31" s="16">
-        <f>E30-COUNTIF(Table257[Time Finished],Table146[[#This Row],[Time Spent]])</f>
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -7493,10 +7586,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D32" s="15"/>
+      <c r="D32" s="15">
+        <v>4</v>
+      </c>
       <c r="E32" s="16">
-        <f>E31-COUNTIF(Table257[Time Finished],Table146[[#This Row],[Time Spent]])</f>
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
@@ -7504,10 +7598,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D33" s="15"/>
+      <c r="D33" s="15">
+        <v>0</v>
+      </c>
       <c r="E33" s="16">
-        <f>E32-COUNTIF(Table257[Time Finished],Table146[[#This Row],[Time Spent]])</f>
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
@@ -7518,7 +7613,7 @@
       <c r="D34" s="15"/>
       <c r="E34" s="16">
         <f>E33-COUNTIF(Table257[Time Finished],Table146[[#This Row],[Time Spent]])</f>
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
@@ -7529,7 +7624,7 @@
       <c r="D35" s="15"/>
       <c r="E35" s="16">
         <f>E34-COUNTIF(Table257[Time Finished],Table146[[#This Row],[Time Spent]])</f>
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
@@ -7540,7 +7635,7 @@
       <c r="D36" s="15"/>
       <c r="E36" s="16">
         <f>E35-COUNTIF(Table257[Time Finished],Table146[[#This Row],[Time Spent]])</f>
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
@@ -7551,7 +7646,7 @@
       <c r="D37" s="15"/>
       <c r="E37" s="16">
         <f>E36-COUNTIF(Table257[Time Finished],Table146[[#This Row],[Time Spent]])</f>
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
@@ -7561,7 +7656,7 @@
       <c r="D38" s="15"/>
       <c r="E38" s="16">
         <f>E37-COUNTIF(Table257[Time Finished],Table146[[#This Row],[Time Spent]])</f>
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
@@ -7571,7 +7666,7 @@
       <c r="D39" s="15"/>
       <c r="E39" s="16">
         <f>E38-COUNTIF(Table257[Time Finished],Table146[[#This Row],[Time Spent]])</f>
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
@@ -7581,14 +7676,14 @@
       <c r="D40" s="15"/>
       <c r="E40" s="16">
         <f>E39-COUNTIF(Table257[Time Finished],Table146[[#This Row],[Time Spent]])</f>
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="86" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;26Sprint 2</oddHeader>
+    <oddHeader>&amp;C&amp;26Sprint 3</oddHeader>
   </headerFooter>
   <drawing r:id="rId2"/>
   <tableParts count="2">

--- a/Docs/Burndown Charts.xlsx
+++ b/Docs/Burndown Charts.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
   <si>
     <t>Task</t>
   </si>
@@ -185,9 +185,6 @@
     <t>Implement AI Difficulty: Hard</t>
   </si>
   <si>
-    <t>0-5 days</t>
-  </si>
-  <si>
     <t>Update Board-Game Layout</t>
   </si>
   <si>
@@ -201,12 +198,6 @@
   </si>
   <si>
     <t>GUI Client: Display board</t>
-  </si>
-  <si>
-    <t>GUI Client: Testing user access</t>
-  </si>
-  <si>
-    <t>GUI Client: Added images</t>
   </si>
   <si>
     <t>GUI Client: Added buttons</t>
@@ -236,9 +227,6 @@
     <t>GUI Client: Allow insensitive password</t>
   </si>
   <si>
-    <t>Perfect Command Transcribing</t>
-  </si>
-  <si>
     <t>Creation of GUI Class</t>
   </si>
   <si>
@@ -246,6 +234,15 @@
   </si>
   <si>
     <t>GUI Client: Fixed row and columns</t>
+  </si>
+  <si>
+    <t>Convert click to move</t>
+  </si>
+  <si>
+    <t>GUI Client: Layout design</t>
+  </si>
+  <si>
+    <t>GUI Client: Added icons</t>
   </si>
 </sst>
 </file>
@@ -1796,7 +1793,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2064,11 +2060,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="179950400"/>
-        <c:axId val="179950960"/>
+        <c:axId val="170083952"/>
+        <c:axId val="170084512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="179950400"/>
+        <c:axId val="170083952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2158,7 +2154,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179950960"/>
+        <c:crossAx val="170084512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2166,7 +2162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179950960"/>
+        <c:axId val="170084512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -2231,7 +2227,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179950400"/>
+        <c:crossAx val="170083952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -2247,7 +2243,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2362,7 +2357,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2666,11 +2660,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="177992976"/>
-        <c:axId val="177993536"/>
+        <c:axId val="170087872"/>
+        <c:axId val="170088432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="177992976"/>
+        <c:axId val="170087872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2760,7 +2754,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177993536"/>
+        <c:crossAx val="170088432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2768,7 +2762,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="177993536"/>
+        <c:axId val="170088432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -2833,7 +2827,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177992976"/>
+        <c:crossAx val="170087872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -2849,7 +2843,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3156,16 +3149,16 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3184,11 +3177,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="181188208"/>
-        <c:axId val="181188768"/>
+        <c:axId val="170355152"/>
+        <c:axId val="170355712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181188208"/>
+        <c:axId val="170355152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3278,7 +3271,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181188768"/>
+        <c:crossAx val="170355712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3286,7 +3279,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181188768"/>
+        <c:axId val="170355712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -3351,7 +3344,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181188208"/>
+        <c:crossAx val="170355152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -6888,7 +6881,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7316,10 +7309,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7341,10 +7334,10 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7352,52 +7345,52 @@
         <v>71</v>
       </c>
       <c r="B3" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B4" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B5" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
@@ -7405,63 +7398,63 @@
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B10" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B11" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B12" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B13" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B14" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B15" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B16" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B17" s="8">
         <v>4</v>
@@ -7469,23 +7462,23 @@
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B18" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B19" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B20" s="8">
         <v>2</v>
@@ -7493,10 +7486,10 @@
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B21" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7531,9 +7524,6 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="C28" s="14">
         <v>0</v>
       </c>
@@ -7554,19 +7544,19 @@
         <v>16</v>
       </c>
       <c r="E29" s="16">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C30" s="14">
-        <f t="shared" ref="C30:C37" si="0">C29+1</f>
+        <f t="shared" ref="C30:C33" si="0">C29+1</f>
         <v>2</v>
       </c>
       <c r="D30" s="15">
         <v>12</v>
       </c>
       <c r="E30" s="16">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -7590,7 +7580,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="16">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
@@ -7605,83 +7595,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C34" s="14">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="16">
-        <f>E33-COUNTIF(Table257[Time Finished],Table146[[#This Row],[Time Spent]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C35" s="14">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="16">
-        <f>E34-COUNTIF(Table257[Time Finished],Table146[[#This Row],[Time Spent]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C36" s="14">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="16">
-        <f>E35-COUNTIF(Table257[Time Finished],Table146[[#This Row],[Time Spent]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C37" s="14">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="16">
-        <f>E36-COUNTIF(Table257[Time Finished],Table146[[#This Row],[Time Spent]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C38" s="14">
-        <v>10</v>
-      </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="16">
-        <f>E37-COUNTIF(Table257[Time Finished],Table146[[#This Row],[Time Spent]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C39" s="14">
-        <v>11</v>
-      </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="16">
-        <f>E38-COUNTIF(Table257[Time Finished],Table146[[#This Row],[Time Spent]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C40" s="14">
-        <v>12</v>
-      </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="16">
-        <f>E39-COUNTIF(Table257[Time Finished],Table146[[#This Row],[Time Spent]])</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="86" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="88" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;26Sprint 3</oddHeader>
   </headerFooter>
